--- a/sampledata/sample_ipsc_batches.xlsx
+++ b/sampledata/sample_ipsc_batches.xlsx
@@ -81,7 +81,7 @@
     <t>HMSL70001</t>
   </si>
   <si>
-    <t>center_name1</t>
+    <t>hms batch name 1</t>
   </si>
   <si>
     <t>ATCC</t>
@@ -120,7 +120,7 @@
     <t>2015-05-23</t>
   </si>
   <si>
-    <t>center_name1a</t>
+    <t>hms batch name 1a</t>
   </si>
   <si>
     <t>ECACC</t>
@@ -150,7 +150,7 @@
     <t>HMSL70002</t>
   </si>
   <si>
-    <t>center_name2a</t>
+    <t>hms batch name 2a</t>
   </si>
   <si>
     <t>DSMZ</t>
@@ -177,7 +177,7 @@
     <t>2015-06-01</t>
   </si>
   <si>
-    <t>center_name2</t>
+    <t>hms batch name 2</t>
   </si>
   <si>
     <t>HTB-103a</t>
@@ -204,7 +204,7 @@
     <t>HMSL70003</t>
   </si>
   <si>
-    <t>center_name3c</t>
+    <t>hms batch name 3c</t>
   </si>
   <si>
     <t>CRL-1872</t>
@@ -228,7 +228,7 @@
     <t>Comment 5</t>
   </si>
   <si>
-    <t>center_name3-3</t>
+    <t>hms batch name 3-3</t>
   </si>
   <si>
     <t>CRL-1739</t>
@@ -255,7 +255,7 @@
     <t>HMSL70004</t>
   </si>
   <si>
-    <t>center_name7</t>
+    <t>hms batch name 7</t>
   </si>
   <si>
     <t>ACC 143</t>
@@ -297,7 +297,7 @@
     <t>HMSL70005</t>
   </si>
   <si>
-    <t>center_name9</t>
+    <t>hms batch name 9</t>
   </si>
   <si>
     <t>JHSF</t>
@@ -321,7 +321,7 @@
     <t>HMSL70006</t>
   </si>
   <si>
-    <t>center_name10</t>
+    <t>hms batch name 10</t>
   </si>
   <si>
     <t>ACC 302</t>
@@ -345,7 +345,7 @@
     <t>HMSL70007</t>
   </si>
   <si>
-    <t>center_name11</t>
+    <t>hms batch name 11</t>
   </si>
   <si>
     <t>HTB-54</t>
@@ -366,7 +366,7 @@
     <t>HMSL70008</t>
   </si>
   <si>
-    <t>center_name12</t>
+    <t>hms batch name 12</t>
   </si>
   <si>
     <t>HTB-55</t>
@@ -387,7 +387,7 @@
     <t>HMSL70009</t>
   </si>
   <si>
-    <t>center_name13</t>
+    <t>hms batch name 13</t>
   </si>
   <si>
     <t>ACC 264</t>
@@ -617,23 +617,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C3" activeCellId="0" sqref="C3:C9 C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,12 +1374,12 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="C3:C9 C11:C15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="10" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
